--- a/report_template/all_daily_report.xlsx
+++ b/report_template/all_daily_report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA2\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14940" windowHeight="9675"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14940" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="監測車" sheetId="13" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
   <si>
     <t>監測日報表</t>
   </si>
@@ -140,67 +140,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOY
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOY-NO
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOY-NT
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOY-DIFF
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3_NOx
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3_NO
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3_NO2
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2S
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2S_CS
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2S_SO2
-ppb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>碳氫化合物
 ppm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -219,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
@@ -362,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,6 +345,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -499,7 +443,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AA$4</c:f>
+              <c:f>監測車!$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -605,7 +549,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>監測車!$AA$5:$AA$28</c:f>
+              <c:f>監測車!$P$5:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -712,7 +656,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AB$4</c:f>
+              <c:f>監測車!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -733,7 +677,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測車!$AB$5:$AB$28</c:f>
+              <c:f>監測車!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1224,7 +1168,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AI$4</c:f>
+              <c:f>監測車!$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1324,7 +1268,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>監測車!$AI$5:$AI$28</c:f>
+              <c:f>監測車!$X$5:$X$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1431,7 +1375,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AB$4</c:f>
+              <c:f>監測車!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1452,7 +1396,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測車!$AB$5:$AB$28</c:f>
+              <c:f>監測車!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1943,7 +1887,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AJ$4</c:f>
+              <c:f>監測車!$Y$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2043,7 +1987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>監測車!$AJ$5:$AJ$28</c:f>
+              <c:f>監測車!$Y$5:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2150,7 +2094,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AB$4</c:f>
+              <c:f>監測車!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2171,7 +2115,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測車!$AB$5:$AB$28</c:f>
+              <c:f>監測車!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2662,7 +2606,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AK$4</c:f>
+              <c:f>監測車!$Z$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2762,7 +2706,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>監測車!$AK$5:$AK$28</c:f>
+              <c:f>監測車!$Z$5:$Z$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2869,7 +2813,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AB$4</c:f>
+              <c:f>監測車!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2890,7 +2834,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測車!$AB$5:$AB$28</c:f>
+              <c:f>監測車!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -3381,7 +3325,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AL$4</c:f>
+              <c:f>監測車!$AA$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3481,7 +3425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>監測車!$AL$5:$AL$28</c:f>
+              <c:f>監測車!$AA$5:$AA$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3588,7 +3532,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AB$4</c:f>
+              <c:f>監測車!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3609,7 +3553,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測車!$AB$5:$AB$28</c:f>
+              <c:f>監測車!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -3909,7 +3853,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$Y$4</c:f>
+              <c:f>監測車!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4015,7 +3959,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>監測車!$Y$5:$Y$28</c:f>
+              <c:f>監測車!$N$5:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -4106,7 +4050,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AM$4</c:f>
+              <c:f>監測車!$AB$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4206,7 +4150,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>監測車!$AM$5:$AM$28</c:f>
+              <c:f>監測車!$AB$5:$AB$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4313,7 +4257,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AB$4</c:f>
+              <c:f>監測車!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4334,7 +4278,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測車!$AB$5:$AB$28</c:f>
+              <c:f>監測車!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -4825,7 +4769,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AN$4</c:f>
+              <c:f>監測車!$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4925,7 +4869,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>監測車!$AN$5:$AN$28</c:f>
+              <c:f>監測車!$AC$5:$AC$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5032,7 +4976,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AB$4</c:f>
+              <c:f>監測車!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5053,7 +4997,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測車!$AB$5:$AB$28</c:f>
+              <c:f>監測車!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -5344,7 +5288,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$X$4</c:f>
+              <c:f>監測車!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5450,7 +5394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>監測車!$X$5:$X$28</c:f>
+              <c:f>監測車!$M$5:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -5541,7 +5485,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AO$4</c:f>
+              <c:f>監測車!$AD$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5641,7 +5585,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>監測車!$AO$5:$AO$28</c:f>
+              <c:f>監測車!$AD$5:$AD$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5748,7 +5692,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測車!$AB$4</c:f>
+              <c:f>監測車!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5769,7 +5713,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測車!$AB$5:$AB$28</c:f>
+              <c:f>監測車!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -6051,7 +5995,7 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -6127,7 +6071,7 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6203,7 +6147,7 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>790574</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6279,7 +6223,7 @@
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -6632,150 +6576,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AD2"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="12" max="22" width="10.625" customWidth="1"/>
-    <col min="23" max="25" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.625" customWidth="1"/>
-    <col min="27" max="33" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="34" max="41" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="14" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="22" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="23" max="30" width="11.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
+    <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
+    <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+    <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="10" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -6795,10 +6711,10 @@
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>7</v>
@@ -6810,214 +6726,148 @@
         <v>32</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="1">
         <v>10</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>19</v>
+      <c r="Z5" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>120</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>125</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>50</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>120</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>125</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -7081,64 +6931,31 @@
       <c r="U6" s="7">
         <v>0</v>
       </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
         <v>20</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="Y6" s="1">
         <v>10</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="Z6" s="1">
         <v>50</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AA6" s="1">
         <v>120</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AB6" s="1">
         <v>125</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AC6" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AD6" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -7202,64 +7019,31 @@
       <c r="U7" s="7">
         <v>0</v>
       </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
         <v>20</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="Y7" s="1">
         <v>10</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="Z7" s="1">
         <v>50</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AA7" s="1">
         <v>120</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AB7" s="1">
         <v>125</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AC7" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AD7" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>0.125</v>
       </c>
@@ -7323,64 +7107,31 @@
       <c r="U8" s="7">
         <v>0</v>
       </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1">
         <v>20</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="Y8" s="1">
         <v>10</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="Z8" s="1">
         <v>50</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AA8" s="1">
         <v>120</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AB8" s="1">
         <v>125</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AC8" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AD8" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>0.16666666666666666</v>
       </c>
@@ -7444,64 +7195,31 @@
       <c r="U9" s="7">
         <v>0</v>
       </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
         <v>20</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="Y9" s="1">
         <v>10</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="Z9" s="1">
         <v>50</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AA9" s="1">
         <v>120</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AB9" s="1">
         <v>125</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AC9" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AD9" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>0.20833333333333334</v>
       </c>
@@ -7565,64 +7283,31 @@
       <c r="U10" s="7">
         <v>0</v>
       </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1">
         <v>20</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="Y10" s="1">
         <v>10</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="Z10" s="1">
         <v>50</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AA10" s="1">
         <v>120</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AB10" s="1">
         <v>125</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AC10" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AD10" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0.25</v>
       </c>
@@ -7686,64 +7371,31 @@
       <c r="U11" s="7">
         <v>0</v>
       </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1">
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1">
         <v>20</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="Y11" s="1">
         <v>10</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="Z11" s="1">
         <v>50</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AA11" s="1">
         <v>120</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AB11" s="1">
         <v>125</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AC11" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AD11" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>0.29166666666666669</v>
       </c>
@@ -7807,64 +7459,31 @@
       <c r="U12" s="7">
         <v>0</v>
       </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1">
         <v>20</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="Y12" s="1">
         <v>10</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="Z12" s="1">
         <v>50</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AA12" s="1">
         <v>120</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AB12" s="1">
         <v>125</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AC12" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AD12" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>0.33333333333333331</v>
       </c>
@@ -7928,64 +7547,31 @@
       <c r="U13" s="7">
         <v>0</v>
       </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
         <v>20</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="Y13" s="1">
         <v>10</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="Z13" s="1">
         <v>50</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AA13" s="1">
         <v>120</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AB13" s="1">
         <v>125</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AC13" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AD13" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>0.375</v>
       </c>
@@ -8049,64 +7635,31 @@
       <c r="U14" s="7">
         <v>0</v>
       </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1">
         <v>20</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="Y14" s="1">
         <v>10</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="Z14" s="1">
         <v>50</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AA14" s="1">
         <v>120</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AB14" s="1">
         <v>125</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AC14" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AD14" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>0.41666666666666669</v>
       </c>
@@ -8170,64 +7723,31 @@
       <c r="U15" s="7">
         <v>0</v>
       </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
-      <c r="W15" s="7">
-        <v>0</v>
-      </c>
-      <c r="X15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1">
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1">
         <v>20</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="Y15" s="1">
         <v>10</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="Z15" s="1">
         <v>50</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AA15" s="1">
         <v>120</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AB15" s="1">
         <v>125</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AC15" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AD15" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>0.45833333333333331</v>
       </c>
@@ -8291,64 +7811,31 @@
       <c r="U16" s="7">
         <v>0</v>
       </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-      <c r="W16" s="7">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1">
         <v>20</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="Y16" s="1">
         <v>10</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="Z16" s="1">
         <v>50</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AA16" s="1">
         <v>120</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AB16" s="1">
         <v>125</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AC16" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO16" s="1">
+      <c r="AD16" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>0.5</v>
       </c>
@@ -8412,64 +7899,31 @@
       <c r="U17" s="7">
         <v>0</v>
       </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1">
         <v>20</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="Y17" s="1">
         <v>10</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="Z17" s="1">
         <v>50</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AA17" s="1">
         <v>120</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AB17" s="1">
         <v>125</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="AC17" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AD17" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>0.54166666666666663</v>
       </c>
@@ -8533,64 +7987,31 @@
       <c r="U18" s="7">
         <v>0</v>
       </c>
-      <c r="V18" s="7">
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1">
         <v>20</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="Y18" s="1">
         <v>10</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="Z18" s="1">
         <v>50</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AA18" s="1">
         <v>120</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AB18" s="1">
         <v>125</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AC18" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AD18" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -8654,64 +8075,31 @@
       <c r="U19" s="7">
         <v>0</v>
       </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1">
         <v>20</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="Y19" s="1">
         <v>10</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="Z19" s="1">
         <v>50</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AA19" s="1">
         <v>120</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AB19" s="1">
         <v>125</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AC19" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AD19" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>0.625</v>
       </c>
@@ -8775,64 +8163,31 @@
       <c r="U20" s="7">
         <v>0</v>
       </c>
-      <c r="V20" s="7">
-        <v>0</v>
-      </c>
-      <c r="W20" s="7">
-        <v>0</v>
-      </c>
-      <c r="X20" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1">
         <v>20</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="Y20" s="1">
         <v>10</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="Z20" s="1">
         <v>50</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AA20" s="1">
         <v>120</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AB20" s="1">
         <v>125</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AC20" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="AD20" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -8896,64 +8251,31 @@
       <c r="U21" s="7">
         <v>0</v>
       </c>
-      <c r="V21" s="7">
-        <v>0</v>
-      </c>
-      <c r="W21" s="7">
-        <v>0</v>
-      </c>
-      <c r="X21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1">
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1">
         <v>20</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="Y21" s="1">
         <v>10</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="Z21" s="1">
         <v>50</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AA21" s="1">
         <v>120</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AB21" s="1">
         <v>125</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AC21" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AD21" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>0.70833333333333337</v>
       </c>
@@ -9017,64 +8339,31 @@
       <c r="U22" s="7">
         <v>0</v>
       </c>
-      <c r="V22" s="7">
-        <v>0</v>
-      </c>
-      <c r="W22" s="7">
-        <v>0</v>
-      </c>
-      <c r="X22" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1">
         <v>20</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="Y22" s="1">
         <v>10</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="Z22" s="1">
         <v>50</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AA22" s="1">
         <v>120</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AB22" s="1">
         <v>125</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AC22" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AD22" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>0.75</v>
       </c>
@@ -9138,64 +8427,31 @@
       <c r="U23" s="7">
         <v>0</v>
       </c>
-      <c r="V23" s="7">
-        <v>0</v>
-      </c>
-      <c r="W23" s="7">
-        <v>0</v>
-      </c>
-      <c r="X23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1">
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1">
         <v>20</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="Y23" s="1">
         <v>10</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="Z23" s="1">
         <v>50</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AA23" s="1">
         <v>120</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AB23" s="1">
         <v>125</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AC23" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AD23" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>0.79166666666666663</v>
       </c>
@@ -9259,64 +8515,31 @@
       <c r="U24" s="7">
         <v>0</v>
       </c>
-      <c r="V24" s="7">
-        <v>0</v>
-      </c>
-      <c r="W24" s="7">
-        <v>0</v>
-      </c>
-      <c r="X24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1">
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1">
         <v>20</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="Y24" s="1">
         <v>10</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="Z24" s="1">
         <v>50</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AA24" s="1">
         <v>120</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AB24" s="1">
         <v>125</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AC24" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AD24" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -9380,64 +8603,31 @@
       <c r="U25" s="7">
         <v>0</v>
       </c>
-      <c r="V25" s="7">
-        <v>0</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0</v>
-      </c>
-      <c r="X25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1">
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1">
         <v>20</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="Y25" s="1">
         <v>10</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="Z25" s="1">
         <v>50</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AA25" s="1">
         <v>120</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AB25" s="1">
         <v>125</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AC25" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AD25" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>0.875</v>
       </c>
@@ -9501,64 +8691,31 @@
       <c r="U26" s="7">
         <v>0</v>
       </c>
-      <c r="V26" s="7">
-        <v>0</v>
-      </c>
-      <c r="W26" s="7">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1">
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1">
         <v>20</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="Y26" s="1">
         <v>10</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="Z26" s="1">
         <v>50</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AA26" s="1">
         <v>120</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AB26" s="1">
         <v>125</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AC26" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO26" s="1">
+      <c r="AD26" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>0.91666666666666663</v>
       </c>
@@ -9622,64 +8779,31 @@
       <c r="U27" s="7">
         <v>0</v>
       </c>
-      <c r="V27" s="7">
-        <v>0</v>
-      </c>
-      <c r="W27" s="7">
-        <v>0</v>
-      </c>
-      <c r="X27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1">
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1">
         <v>20</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="Y27" s="1">
         <v>10</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="Z27" s="1">
         <v>50</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AA27" s="1">
         <v>120</v>
       </c>
-      <c r="AM27" s="1">
+      <c r="AB27" s="1">
         <v>125</v>
       </c>
-      <c r="AN27" s="1">
+      <c r="AC27" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO27" s="1">
+      <c r="AD27" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>0.95833333333333337</v>
       </c>
@@ -9743,64 +8867,31 @@
       <c r="U28" s="7">
         <v>0</v>
       </c>
-      <c r="V28" s="7">
-        <v>0</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1">
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1">
         <v>20</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="Y28" s="1">
         <v>10</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="Z28" s="1">
         <v>50</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AA28" s="1">
         <v>120</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AB28" s="1">
         <v>125</v>
       </c>
-      <c r="AN28" s="1">
+      <c r="AC28" s="1">
         <v>1.5</v>
       </c>
-      <c r="AO28" s="1">
+      <c r="AD28" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
@@ -9864,50 +8955,17 @@
       <c r="U29" s="7">
         <v>0</v>
       </c>
-      <c r="V29" s="7">
-        <v>0</v>
-      </c>
-      <c r="W29" s="7">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
@@ -9971,50 +9029,17 @@
       <c r="U30" s="7">
         <v>0</v>
       </c>
-      <c r="V30" s="7">
-        <v>0</v>
-      </c>
-      <c r="W30" s="7">
-        <v>0</v>
-      </c>
-      <c r="X30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
@@ -10078,50 +9103,17 @@
       <c r="U31" s="7">
         <v>0</v>
       </c>
-      <c r="V31" s="7">
-        <v>0</v>
-      </c>
-      <c r="W31" s="7">
-        <v>0</v>
-      </c>
-      <c r="X31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -10185,50 +9177,17 @@
       <c r="U32" s="7">
         <v>0</v>
       </c>
-      <c r="V32" s="7">
-        <v>0</v>
-      </c>
-      <c r="W32" s="7">
-        <v>0</v>
-      </c>
-      <c r="X32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -10265,15 +9224,13 @@
       <c r="L33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="M33" s="6">
+        <v>250</v>
+      </c>
+      <c r="N33" s="6">
+        <v>125</v>
+      </c>
+      <c r="O33" s="6"/>
       <c r="P33" s="6" t="s">
         <v>22</v>
       </c>
@@ -10292,48 +9249,17 @@
       <c r="U33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="W33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X33" s="6">
-        <v>250</v>
-      </c>
-      <c r="Y33" s="6">
-        <v>125</v>
-      </c>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>23</v>
       </c>
@@ -10374,15 +9300,15 @@
       <c r="L34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="M34" s="6">
+        <f>COUNTIF(M5:M28,"&gt;"&amp;M33)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <f>COUNTIF(N5:N28,"&gt;"&amp;N33)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="6"/>
       <c r="P34" s="6" t="s">
         <v>22</v>
       </c>
@@ -10401,50 +9327,17 @@
       <c r="U34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="W34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X34" s="6">
-        <f>COUNTIF(X5:X28,"&gt;"&amp;X33)</f>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="6">
-        <f>COUNTIF(Y5:Y28,"&gt;"&amp;Y33)</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>24</v>
       </c>
@@ -10485,15 +9378,15 @@
       <c r="L35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="M35" s="6">
+        <f>M34/24*100</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <f>N34/24*100</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="6"/>
       <c r="P35" s="6" t="s">
         <v>22</v>
       </c>
@@ -10512,276 +9405,188 @@
       <c r="U35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="W35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X35" s="6">
-        <f>X34/24*100</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="6">
-        <f>Y34/24*100</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:AF40"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
